--- a/legislator/property/output/normal/蔡其昌_2012-04-24_財產申報表_tmp61ee1.xlsx
+++ b/legislator/property/output/normal/蔡其昌_2012-04-24_財產申報表_tmp61ee1.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="126">
   <si>
     <t>土地坐落</t>
   </si>
@@ -207,6 +207,15 @@
     <t>total</t>
   </si>
   <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
     <t>允強實業股份有限公司</t>
   </si>
   <si>
@@ -232,6 +241,9 @@
   </si>
   <si>
     <t>凱雷國際</t>
+  </si>
+  <si>
+    <t>2012-04-24</t>
   </si>
   <si>
     <t>名稱</t>
@@ -1405,13 +1417,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>55</v>
       </c>
@@ -1430,13 +1442,22 @@
       <c r="G1" s="1" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1">
         <v>69</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>15</v>
@@ -1453,13 +1474,22 @@
       <c r="G2" s="2">
         <v>150000</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="2">
+        <v>1377</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1">
         <v>70</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>15</v>
@@ -1476,13 +1506,22 @@
       <c r="G3" s="2">
         <v>320000</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" s="2">
+        <v>1377</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1">
         <v>72</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>15</v>
@@ -1499,13 +1538,22 @@
       <c r="G4" s="2">
         <v>300000</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="H4" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" s="2">
+        <v>1377</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1">
         <v>73</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>15</v>
@@ -1522,13 +1570,22 @@
       <c r="G5" s="2">
         <v>10100</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J5" s="2">
+        <v>1377</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1">
         <v>74</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>15</v>
@@ -1545,13 +1602,22 @@
       <c r="G6" s="2">
         <v>100000</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="H6" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J6" s="2">
+        <v>1377</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1">
         <v>75</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>15</v>
@@ -1568,13 +1634,22 @@
       <c r="G7" s="2">
         <v>150000</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="H7" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J7" s="2">
+        <v>1377</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1">
         <v>76</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>15</v>
@@ -1591,13 +1666,22 @@
       <c r="G8" s="2">
         <v>2152860</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="H8" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J8" s="2">
+        <v>1377</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1">
         <v>77</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>14</v>
@@ -1614,13 +1698,22 @@
       <c r="G9" s="2">
         <v>77780</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="H9" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" s="2">
+        <v>1377</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1">
         <v>78</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>14</v>
@@ -1636,6 +1729,15 @@
       </c>
       <c r="G10" s="2">
         <v>62220</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J10" s="2">
+        <v>1377</v>
       </c>
     </row>
   </sheetData>
@@ -1653,22 +1755,22 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>43</v>
@@ -1679,13 +1781,13 @@
         <v>88</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E2" s="2">
         <v>9870.4</v>
@@ -1705,13 +1807,13 @@
         <v>89</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E3" s="2">
         <v>32776.2</v>
@@ -1731,13 +1833,13 @@
         <v>90</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E4" s="2">
         <v>22144.1</v>
@@ -1757,13 +1859,13 @@
         <v>91</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E5" s="2">
         <v>50.6</v>
@@ -1783,13 +1885,13 @@
         <v>92</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E6" s="2">
         <v>21251.7</v>
@@ -1809,13 +1911,13 @@
         <v>93</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E7" s="2">
         <v>60310</v>
@@ -1835,13 +1937,13 @@
         <v>94</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E8" s="2">
         <v>4985</v>
@@ -1861,13 +1963,13 @@
         <v>95</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E9" s="2">
         <v>8385.4</v>
@@ -1887,13 +1989,13 @@
         <v>96</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E10" s="2">
         <v>27287.6</v>
@@ -1913,13 +2015,13 @@
         <v>97</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E11" s="2">
         <v>25000</v>
@@ -1949,16 +2051,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1966,7 +2068,7 @@
         <v>109</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C2" s="2">
         <v>1</v>
@@ -1983,7 +2085,7 @@
         <v>110</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C3" s="2">
         <v>3</v>
@@ -2000,7 +2102,7 @@
         <v>111</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C4" s="2">
         <v>1</v>
@@ -2017,7 +2119,7 @@
         <v>112</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C5" s="2">
         <v>1</v>
@@ -2034,7 +2136,7 @@
         <v>113</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="C6" s="2">
         <v>3</v>
@@ -2061,16 +2163,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2078,16 +2180,16 @@
         <v>118</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2095,16 +2197,16 @@
         <v>119</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2112,16 +2214,16 @@
         <v>120</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -2142,19 +2244,19 @@
         <v>40</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2162,22 +2264,22 @@
         <v>130</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E2" s="2">
         <v>4559066</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2185,22 +2287,22 @@
         <v>131</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E3" s="2">
         <v>4926564</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2208,22 +2310,22 @@
         <v>132</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E4" s="2">
         <v>2349350</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/蔡其昌_2012-04-24_財產申報表_tmp61ee1.xlsx
+++ b/legislator/property/output/normal/蔡其昌_2012-04-24_財產申報表_tmp61ee1.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="128">
   <si>
     <t>土地坐落</t>
   </si>
@@ -207,6 +207,9 @@
     <t>total</t>
   </si>
   <si>
+    <t>property_category</t>
+  </si>
+  <si>
     <t>date</t>
   </si>
   <si>
@@ -222,7 +225,7 @@
     <t>橋椿金屬股份有鹵公司</t>
   </si>
   <si>
-    <t>大甲永和機械工業股份有 限公司</t>
+    <t>大甲永和機械工業股份有限公司</t>
   </si>
   <si>
     <t>健和興端子股份有限公司</t>
@@ -241,6 +244,9 @@
   </si>
   <si>
     <t>凱雷國際</t>
+  </si>
+  <si>
+    <t>stock</t>
   </si>
   <si>
     <t>2012-04-24</t>
@@ -1417,13 +1423,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>55</v>
       </c>
@@ -1451,13 +1457,16 @@
       <c r="J1" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>69</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>15</v>
@@ -1475,21 +1484,24 @@
         <v>150000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J2" s="2">
+        <v>75</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" s="2">
         <v>1377</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>70</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>15</v>
@@ -1507,21 +1519,24 @@
         <v>320000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J3" s="2">
+        <v>75</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K3" s="2">
         <v>1377</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>72</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>15</v>
@@ -1539,21 +1554,24 @@
         <v>300000</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J4" s="2">
+        <v>75</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" s="2">
         <v>1377</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:11">
       <c r="A5" s="1">
         <v>73</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>15</v>
@@ -1571,21 +1589,24 @@
         <v>10100</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J5" s="2">
+        <v>75</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K5" s="2">
         <v>1377</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:11">
       <c r="A6" s="1">
         <v>74</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>15</v>
@@ -1603,21 +1624,24 @@
         <v>100000</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J6" s="2">
+        <v>75</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K6" s="2">
         <v>1377</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:11">
       <c r="A7" s="1">
         <v>75</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>15</v>
@@ -1635,21 +1659,24 @@
         <v>150000</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J7" s="2">
+        <v>75</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K7" s="2">
         <v>1377</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:11">
       <c r="A8" s="1">
         <v>76</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>15</v>
@@ -1667,21 +1694,24 @@
         <v>2152860</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J8" s="2">
+        <v>75</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K8" s="2">
         <v>1377</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:11">
       <c r="A9" s="1">
         <v>77</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>14</v>
@@ -1699,21 +1729,24 @@
         <v>77780</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J9" s="2">
+        <v>75</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K9" s="2">
         <v>1377</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:11">
       <c r="A10" s="1">
         <v>78</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>14</v>
@@ -1731,12 +1764,15 @@
         <v>62220</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J10" s="2">
+        <v>75</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K10" s="2">
         <v>1377</v>
       </c>
     </row>
@@ -1755,22 +1791,22 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>43</v>
@@ -1781,13 +1817,13 @@
         <v>88</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E2" s="2">
         <v>9870.4</v>
@@ -1807,13 +1843,13 @@
         <v>89</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E3" s="2">
         <v>32776.2</v>
@@ -1833,13 +1869,13 @@
         <v>90</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E4" s="2">
         <v>22144.1</v>
@@ -1859,13 +1895,13 @@
         <v>91</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E5" s="2">
         <v>50.6</v>
@@ -1885,13 +1921,13 @@
         <v>92</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E6" s="2">
         <v>21251.7</v>
@@ -1911,13 +1947,13 @@
         <v>93</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E7" s="2">
         <v>60310</v>
@@ -1937,13 +1973,13 @@
         <v>94</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E8" s="2">
         <v>4985</v>
@@ -1963,13 +1999,13 @@
         <v>95</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E9" s="2">
         <v>8385.4</v>
@@ -1989,13 +2025,13 @@
         <v>96</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E10" s="2">
         <v>27287.6</v>
@@ -2015,13 +2051,13 @@
         <v>97</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E11" s="2">
         <v>25000</v>
@@ -2051,16 +2087,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2068,7 +2104,7 @@
         <v>109</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C2" s="2">
         <v>1</v>
@@ -2085,7 +2121,7 @@
         <v>110</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C3" s="2">
         <v>3</v>
@@ -2102,7 +2138,7 @@
         <v>111</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C4" s="2">
         <v>1</v>
@@ -2119,7 +2155,7 @@
         <v>112</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C5" s="2">
         <v>1</v>
@@ -2136,7 +2172,7 @@
         <v>113</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C6" s="2">
         <v>3</v>
@@ -2163,16 +2199,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2180,16 +2216,16 @@
         <v>118</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2197,16 +2233,16 @@
         <v>119</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2214,16 +2250,16 @@
         <v>120</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -2244,19 +2280,19 @@
         <v>40</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2264,22 +2300,22 @@
         <v>130</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E2" s="2">
         <v>4559066</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2287,22 +2323,22 @@
         <v>131</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E3" s="2">
         <v>4926564</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2310,22 +2346,22 @@
         <v>132</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E4" s="2">
         <v>2349350</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/蔡其昌_2012-04-24_財產申報表_tmp61ee1.xlsx
+++ b/legislator/property/output/normal/蔡其昌_2012-04-24_財產申報表_tmp61ee1.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="133">
   <si>
     <t>土地坐落</t>
   </si>
@@ -210,6 +210,9 @@
     <t>property_category</t>
   </si>
   <si>
+    <t>category</t>
+  </si>
+  <si>
     <t>date</t>
   </si>
   <si>
@@ -219,6 +222,12 @@
     <t>legislator_id</t>
   </si>
   <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
     <t>允強實業股份有限公司</t>
   </si>
   <si>
@@ -249,7 +258,13 @@
     <t>stock</t>
   </si>
   <si>
+    <t>normal</t>
+  </si>
+  <si>
     <t>2012-04-24</t>
+  </si>
+  <si>
+    <t>tmp61ee1</t>
   </si>
   <si>
     <t>名稱</t>
@@ -1423,13 +1438,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
         <v>55</v>
       </c>
@@ -1460,13 +1475,22 @@
       <c r="K1" s="1" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>69</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>15</v>
@@ -1484,24 +1508,33 @@
         <v>150000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K2" s="2">
+        <v>79</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L2" s="2">
         <v>1377</v>
       </c>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="M2" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="N2" s="2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>70</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>15</v>
@@ -1519,24 +1552,33 @@
         <v>320000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K3" s="2">
+        <v>79</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L3" s="2">
         <v>1377</v>
       </c>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="M3" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="N3" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>72</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>15</v>
@@ -1554,24 +1596,33 @@
         <v>300000</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K4" s="2">
+        <v>79</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L4" s="2">
         <v>1377</v>
       </c>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="M4" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="N4" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>73</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>15</v>
@@ -1589,24 +1640,33 @@
         <v>10100</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K5" s="2">
+        <v>79</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L5" s="2">
         <v>1377</v>
       </c>
-    </row>
-    <row r="6" spans="1:11">
+      <c r="M5" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="N5" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>74</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>15</v>
@@ -1624,24 +1684,33 @@
         <v>100000</v>
       </c>
       <c r="H6" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L6" s="2">
+        <v>1377</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="N6" s="2">
         <v>74</v>
       </c>
-      <c r="I6" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K6" s="2">
-        <v>1377</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" s="1">
         <v>75</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>15</v>
@@ -1659,24 +1728,33 @@
         <v>150000</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="I7" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L7" s="2">
+        <v>1377</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="N7" s="2">
         <v>75</v>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K7" s="2">
-        <v>1377</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" s="1">
         <v>76</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>15</v>
@@ -1694,24 +1772,33 @@
         <v>2152860</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K8" s="2">
+        <v>79</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L8" s="2">
         <v>1377</v>
       </c>
-    </row>
-    <row r="9" spans="1:11">
+      <c r="M8" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="N8" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" s="1">
         <v>77</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>14</v>
@@ -1729,24 +1816,33 @@
         <v>77780</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K9" s="2">
+        <v>79</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L9" s="2">
         <v>1377</v>
       </c>
-    </row>
-    <row r="10" spans="1:11">
+      <c r="M9" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="N9" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" s="1">
         <v>78</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>14</v>
@@ -1764,16 +1860,25 @@
         <v>62220</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K10" s="2">
+        <v>79</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L10" s="2">
         <v>1377</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="N10" s="2">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -1791,22 +1896,22 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>43</v>
@@ -1817,13 +1922,13 @@
         <v>88</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="E2" s="2">
         <v>9870.4</v>
@@ -1843,13 +1948,13 @@
         <v>89</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E3" s="2">
         <v>32776.2</v>
@@ -1869,13 +1974,13 @@
         <v>90</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="E4" s="2">
         <v>22144.1</v>
@@ -1895,13 +2000,13 @@
         <v>91</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="E5" s="2">
         <v>50.6</v>
@@ -1921,13 +2026,13 @@
         <v>92</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="E6" s="2">
         <v>21251.7</v>
@@ -1947,13 +2052,13 @@
         <v>93</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="E7" s="2">
         <v>60310</v>
@@ -1973,13 +2078,13 @@
         <v>94</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="E8" s="2">
         <v>4985</v>
@@ -1999,13 +2104,13 @@
         <v>95</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="E9" s="2">
         <v>8385.4</v>
@@ -2025,13 +2130,13 @@
         <v>96</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="E10" s="2">
         <v>27287.6</v>
@@ -2051,13 +2156,13 @@
         <v>97</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="E11" s="2">
         <v>25000</v>
@@ -2087,16 +2192,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2104,7 +2209,7 @@
         <v>109</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="C2" s="2">
         <v>1</v>
@@ -2121,7 +2226,7 @@
         <v>110</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="C3" s="2">
         <v>3</v>
@@ -2138,7 +2243,7 @@
         <v>111</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="C4" s="2">
         <v>1</v>
@@ -2155,7 +2260,7 @@
         <v>112</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="C5" s="2">
         <v>1</v>
@@ -2172,7 +2277,7 @@
         <v>113</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="C6" s="2">
         <v>3</v>
@@ -2199,16 +2304,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2216,16 +2321,16 @@
         <v>118</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2233,16 +2338,16 @@
         <v>119</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2250,16 +2355,16 @@
         <v>120</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -2280,19 +2385,19 @@
         <v>40</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2300,22 +2405,22 @@
         <v>130</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="E2" s="2">
         <v>4559066</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2323,22 +2428,22 @@
         <v>131</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="E3" s="2">
         <v>4926564</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2346,22 +2451,22 @@
         <v>132</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="E4" s="2">
         <v>2349350</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/蔡其昌_2012-04-24_財產申報表_tmp61ee1.xlsx
+++ b/legislator/property/output/normal/蔡其昌_2012-04-24_財產申報表_tmp61ee1.xlsx
@@ -22,9 +22,111 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="133">
-  <si>
-    <t>土地坐落</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="138">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>share_portion</t>
+  </si>
+  <si>
+    <t>owner</t>
+  </si>
+  <si>
+    <t>register_date</t>
+  </si>
+  <si>
+    <t>register_reason</t>
+  </si>
+  <si>
+    <t>acquire_value</t>
+  </si>
+  <si>
+    <t>property_category</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>臺中市清水區清水段清水小段00290000地號</t>
+  </si>
+  <si>
+    <t>臺中市清水區清水段清水小段00290002地號</t>
+  </si>
+  <si>
+    <t>臺中市南屯區大新段08600000地號</t>
+  </si>
+  <si>
+    <t>臺中市清水區田寮段橋頭小段02530000地號</t>
+  </si>
+  <si>
+    <t>臺中市梧棲區三民段00910014地號</t>
+  </si>
+  <si>
+    <t>全部</t>
+  </si>
+  <si>
+    <t>100000分之605</t>
+  </si>
+  <si>
+    <t>蔡其昌</t>
+  </si>
+  <si>
+    <t>黃玉廷</t>
+  </si>
+  <si>
+    <t>87年12月29日</t>
+  </si>
+  <si>
+    <t>91年03月29日</t>
+  </si>
+  <si>
+    <t>90年10月04H</t>
+  </si>
+  <si>
+    <t>100年06月14曰</t>
+  </si>
+  <si>
+    <t>共有物分割</t>
+  </si>
+  <si>
+    <t>買賣</t>
+  </si>
+  <si>
+    <t>(超過五年）</t>
+  </si>
+  <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>2012-04-24</t>
+  </si>
+  <si>
+    <t>tmp61ee1</t>
+  </si>
+  <si>
+    <t>建物標示</t>
   </si>
   <si>
     <t>面積（平方公尺）</t>
@@ -45,85 +147,34 @@
     <t>取得價額</t>
   </si>
   <si>
-    <t>臺中市清水區清水段清水小段 0029-0000 地號</t>
-  </si>
-  <si>
-    <t>臺中市清水區清水段清水小段 0029-0002 地號</t>
-  </si>
-  <si>
-    <t>臺中市南屯區大新段0860-0000 地號</t>
-  </si>
-  <si>
-    <t>臺中市清水區田寮段橋頭小段 0253-0000 地號</t>
-  </si>
-  <si>
-    <t>臺中市梧棲區三民段0091 -0014 地號</t>
-  </si>
-  <si>
-    <t>全部</t>
-  </si>
-  <si>
-    <t>100000 分 之605</t>
-  </si>
-  <si>
-    <t>蔡其昌</t>
-  </si>
-  <si>
-    <t>黃玉廷</t>
-  </si>
-  <si>
-    <t>87年12月 29日</t>
-  </si>
-  <si>
-    <t>91年03月 29日</t>
-  </si>
-  <si>
-    <t>90年10月 04 H</t>
-  </si>
-  <si>
-    <t>100 年 06 月14曰</t>
-  </si>
-  <si>
-    <t>共有物分 割</t>
-  </si>
-  <si>
-    <t>買賣</t>
-  </si>
-  <si>
-    <t>(超過五年）</t>
-  </si>
-  <si>
-    <t>建物標示</t>
-  </si>
-  <si>
-    <t>臺中市南屯區大新段09139-000 建號</t>
-  </si>
-  <si>
-    <t>臺中市南屯區大新段09228-000 建號</t>
-  </si>
-  <si>
-    <t>臺中市南屯區大新段09229-000 建號</t>
-  </si>
-  <si>
-    <t>臺中市清水區田寮段橋頭小段 01010-000 建號</t>
-  </si>
-  <si>
-    <t>臺中市梧棲區三民段02032-000 建號</t>
-  </si>
-  <si>
-    <t>臺中市清水區清水段清水小段 00168-000 建號</t>
-  </si>
-  <si>
-    <t>100000 分 之586</t>
+    <t>臺中市南屯區大新段09139000建號</t>
+  </si>
+  <si>
+    <t>臺中市南屯區大新段09228000建號</t>
+  </si>
+  <si>
+    <t>臺中市南屯區大新段09229000建號</t>
+  </si>
+  <si>
+    <t>臺中市清水區田寮段橋頭小段01010000建號</t>
+  </si>
+  <si>
+    <t>臺中市梧棲區三民段02032000建號</t>
+  </si>
+  <si>
+    <t>臺中市清水區清水段清水小段00168000建號</t>
+  </si>
+  <si>
+    <t>100000分之586</t>
   </si>
   <si>
     <t>213分之1</t>
   </si>
   <si>
-    <t>91年03月 29 □</t>
-  </si>
-  <si>
-    <t>90年10月 04日</t>
+    <t>91年03月29□</t>
+  </si>
+  <si>
+    <t>90年10月04日</t>
   </si>
   <si>
     <t>廠牌型號</t>
@@ -135,10 +186,10 @@
     <t>所有人</t>
   </si>
   <si>
-    <t>Honda CR-V</t>
-  </si>
-  <si>
-    <t>96年07月 11曰</t>
+    <t>HondaCRV</t>
+  </si>
+  <si>
+    <t>96年07月11曰</t>
   </si>
   <si>
     <t>存放機構(應敘明分支機構）</t>
@@ -165,10 +216,10 @@
     <t>華南商業銀行豐原分行</t>
   </si>
   <si>
-    <t>國泰世華商業銀行西台中 分行</t>
-  </si>
-  <si>
-    <t>國泰世華商業銀行沙鹿分 行</t>
+    <t>國泰世華商業銀行西台中分行</t>
+  </si>
+  <si>
+    <t>國泰世華商業銀行沙鹿分行</t>
   </si>
   <si>
     <t>永豐商業銀行南台中分行</t>
@@ -189,12 +240,6 @@
     <t>美金</t>
   </si>
   <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>owner</t>
-  </si>
-  <si>
     <t>quantity</t>
   </si>
   <si>
@@ -207,27 +252,6 @@
     <t>total</t>
   </si>
   <si>
-    <t>property_category</t>
-  </si>
-  <si>
-    <t>category</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>legislator_name</t>
-  </si>
-  <si>
-    <t>legislator_id</t>
-  </si>
-  <si>
-    <t>source_file</t>
-  </si>
-  <si>
-    <t>index</t>
-  </si>
-  <si>
     <t>允強實業股份有限公司</t>
   </si>
   <si>
@@ -258,15 +282,6 @@
     <t>stock</t>
   </si>
   <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>2012-04-24</t>
-  </si>
-  <si>
-    <t>tmp61ee1</t>
-  </si>
-  <si>
     <t>名稱</t>
   </si>
   <si>
@@ -285,25 +300,25 @@
     <t>復華高成長基金</t>
   </si>
   <si>
-    <t>復華新興債股動 力組合基金</t>
-  </si>
-  <si>
-    <t>復華華人世紀基 金</t>
-  </si>
-  <si>
-    <t>復華傳家二號基 金</t>
-  </si>
-  <si>
-    <t>復華全球大趨勢 基金</t>
-  </si>
-  <si>
-    <t>復華全球短期收 益基金</t>
+    <t>復華新興債股動力組合基金</t>
+  </si>
+  <si>
+    <t>復華華人世紀基金</t>
+  </si>
+  <si>
+    <t>復華傳家二號基金</t>
+  </si>
+  <si>
+    <t>復華全球大趨勢基金</t>
+  </si>
+  <si>
+    <t>復華全球短期收益基金</t>
   </si>
   <si>
     <t>復華復華基金</t>
   </si>
   <si>
-    <t>復華大中華中小 策略基金</t>
+    <t>復華大中華中小策略基金</t>
   </si>
   <si>
     <t>寶來滬深300ETF</t>
@@ -324,7 +339,7 @@
     <t>產種類</t>
   </si>
   <si>
-    <t>項/</t>
+    <t>項</t>
   </si>
   <si>
     <t>件</t>
@@ -369,13 +384,13 @@
     <t>添美盛美元終身壽險</t>
   </si>
   <si>
-    <t>保額20萬，被保險人蔡〇葳</t>
-  </si>
-  <si>
-    <t>保額30萬，被保險人蔡◦鵬</t>
-  </si>
-  <si>
-    <t>保額3000美元，被保險人蔡 其昌</t>
+    <t>保額20萬被保險人蔡〇葳</t>
+  </si>
+  <si>
+    <t>保額30萬被保險人蔡◦鵬</t>
+  </si>
+  <si>
+    <t>保額3000美元被保險人蔡其昌</t>
   </si>
   <si>
     <t>債務人</t>
@@ -396,25 +411,25 @@
     <t>房屋貸款</t>
   </si>
   <si>
-    <t>安泰銀行豐原分行 臺中市豐原區信義街</t>
-  </si>
-  <si>
-    <t>第一銀行大甲分行 臺中市大甲區順天路</t>
-  </si>
-  <si>
-    <t>國泰世華銀行沙鹿分行 臺中市沙鹿區成功東街</t>
-  </si>
-  <si>
-    <t>91年04月 04日</t>
-  </si>
-  <si>
-    <t>100年06月 27日</t>
-  </si>
-  <si>
-    <t>100年06月 23日</t>
-  </si>
-  <si>
-    <t>親友與本人 投資資金需 求</t>
+    <t>安泰銀行豐原分行臺中市豐原區信義街</t>
+  </si>
+  <si>
+    <t>第一銀行大甲分行臺中市大甲區順天路</t>
+  </si>
+  <si>
+    <t>國泰世華銀行沙鹿分行臺中市沙鹿區成功東街</t>
+  </si>
+  <si>
+    <t>91年04月04日</t>
+  </si>
+  <si>
+    <t>100年06月27日</t>
+  </si>
+  <si>
+    <t>100年06月23日</t>
+  </si>
+  <si>
+    <t>親友與本人投資資金需求</t>
   </si>
   <si>
     <t>原房貸轉貸</t>
@@ -779,13 +794,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -807,135 +822,261 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>15</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2">
         <v>249</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1377</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O2" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>16</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C3" s="2">
         <v>4</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1377</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O3" s="2">
         <v>16</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>17</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C4" s="2">
         <v>2757</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M4" s="2">
+        <v>1377</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O4" s="2">
         <v>17</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>18</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C5" s="2">
         <v>163</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="F5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M5" s="2">
+        <v>1377</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O5" s="2">
         <v>18</v>
       </c>
-      <c r="G5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>19</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C6" s="2">
         <v>76</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="H6" s="2">
         <v>1056400</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M6" s="2">
+        <v>1377</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O6" s="2">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -953,25 +1094,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -979,25 +1120,25 @@
         <v>24</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="C2" s="2">
         <v>163</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1005,25 +1146,25 @@
         <v>25</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="C3" s="2">
         <v>13073.05</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1031,25 +1172,25 @@
         <v>26</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="C4" s="2">
         <v>3073.33</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1057,25 +1198,25 @@
         <v>27</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="C5" s="2">
         <v>193.04</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1083,22 +1224,22 @@
         <v>28</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="C6" s="2">
         <v>175.75</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="H6" s="2">
         <v>2766184</v>
@@ -1109,25 +1250,25 @@
         <v>29</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="C7" s="2">
         <v>51.8</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1145,22 +1286,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1168,19 +1309,19 @@
         <v>39</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="C2" s="2">
         <v>1997</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="G2" s="2">
         <v>800000</v>
@@ -1201,22 +1342,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1224,16 +1365,16 @@
         <v>53</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2">
@@ -1245,16 +1386,16 @@
         <v>54</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2">
@@ -1266,16 +1407,16 @@
         <v>55</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2">
@@ -1287,16 +1428,16 @@
         <v>56</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2">
@@ -1308,16 +1449,16 @@
         <v>57</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="F6" s="2">
         <v>4594.63</v>
@@ -1331,16 +1472,16 @@
         <v>58</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2">
@@ -1352,16 +1493,16 @@
         <v>59</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2">
@@ -1373,16 +1514,16 @@
         <v>60</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2">
@@ -1394,16 +1535,16 @@
         <v>61</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2">
@@ -1415,16 +1556,16 @@
         <v>62</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2">
@@ -1446,43 +1587,43 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>56</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>61</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>62</v>
+        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>63</v>
+        <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>64</v>
+        <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>65</v>
+        <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>67</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -1490,10 +1631,10 @@
         <v>69</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D2" s="2">
         <v>15000</v>
@@ -1502,28 +1643,28 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="G2" s="2">
         <v>150000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>78</v>
+        <v>31</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>79</v>
+        <v>32</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="L2" s="2">
         <v>1377</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>80</v>
+        <v>33</v>
       </c>
       <c r="N2" s="2">
         <v>69</v>
@@ -1534,10 +1675,10 @@
         <v>70</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D3" s="2">
         <v>32000</v>
@@ -1546,28 +1687,28 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="G3" s="2">
         <v>320000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>78</v>
+        <v>31</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>79</v>
+        <v>32</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="L3" s="2">
         <v>1377</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>80</v>
+        <v>33</v>
       </c>
       <c r="N3" s="2">
         <v>70</v>
@@ -1578,10 +1719,10 @@
         <v>72</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D4" s="2">
         <v>30000</v>
@@ -1590,28 +1731,28 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="G4" s="2">
         <v>300000</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>78</v>
+        <v>31</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>79</v>
+        <v>32</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="L4" s="2">
         <v>1377</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>80</v>
+        <v>33</v>
       </c>
       <c r="N4" s="2">
         <v>72</v>
@@ -1622,10 +1763,10 @@
         <v>73</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D5" s="2">
         <v>1010</v>
@@ -1634,28 +1775,28 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="G5" s="2">
         <v>10100</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>78</v>
+        <v>31</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>79</v>
+        <v>32</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="L5" s="2">
         <v>1377</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>80</v>
+        <v>33</v>
       </c>
       <c r="N5" s="2">
         <v>73</v>
@@ -1666,10 +1807,10 @@
         <v>74</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D6" s="2">
         <v>10000</v>
@@ -1678,28 +1819,28 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="G6" s="2">
         <v>100000</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>78</v>
+        <v>31</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>79</v>
+        <v>32</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="L6" s="2">
         <v>1377</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>80</v>
+        <v>33</v>
       </c>
       <c r="N6" s="2">
         <v>74</v>
@@ -1710,10 +1851,10 @@
         <v>75</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D7" s="2">
         <v>15000</v>
@@ -1722,28 +1863,28 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="G7" s="2">
         <v>150000</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>78</v>
+        <v>31</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>79</v>
+        <v>32</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="L7" s="2">
         <v>1377</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>80</v>
+        <v>33</v>
       </c>
       <c r="N7" s="2">
         <v>75</v>
@@ -1754,10 +1895,10 @@
         <v>76</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D8" s="2">
         <v>215286</v>
@@ -1766,28 +1907,28 @@
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="G8" s="2">
         <v>2152860</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>78</v>
+        <v>31</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>79</v>
+        <v>32</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="L8" s="2">
         <v>1377</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>80</v>
+        <v>33</v>
       </c>
       <c r="N8" s="2">
         <v>76</v>
@@ -1798,10 +1939,10 @@
         <v>77</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D9" s="2">
         <v>7778</v>
@@ -1810,28 +1951,28 @@
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="G9" s="2">
         <v>77780</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>78</v>
+        <v>31</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>79</v>
+        <v>32</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="L9" s="2">
         <v>1377</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>80</v>
+        <v>33</v>
       </c>
       <c r="N9" s="2">
         <v>77</v>
@@ -1842,10 +1983,10 @@
         <v>78</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D10" s="2">
         <v>6222</v>
@@ -1854,28 +1995,28 @@
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="G10" s="2">
         <v>62220</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>78</v>
+        <v>31</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>79</v>
+        <v>32</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="L10" s="2">
         <v>1377</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>80</v>
+        <v>33</v>
       </c>
       <c r="N10" s="2">
         <v>78</v>
@@ -1896,25 +2037,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1922,13 +2063,13 @@
         <v>88</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="E2" s="2">
         <v>9870.4</v>
@@ -1937,7 +2078,7 @@
         <v>22.41</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="H2" s="2">
         <v>221195.66</v>
@@ -1948,13 +2089,13 @@
         <v>89</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="E3" s="2">
         <v>32776.2</v>
@@ -1963,7 +2104,7 @@
         <v>9.79</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="H3" s="2">
         <v>320879</v>
@@ -1974,13 +2115,13 @@
         <v>90</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="E4" s="2">
         <v>22144.1</v>
@@ -1989,7 +2130,7 @@
         <v>11.89</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="H4" s="2">
         <v>263293.35</v>
@@ -2000,13 +2141,13 @@
         <v>91</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="E5" s="2">
         <v>50.6</v>
@@ -2015,7 +2156,7 @@
         <v>13.17</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="H5" s="2">
         <v>666.4</v>
@@ -2026,13 +2167,13 @@
         <v>92</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="E6" s="2">
         <v>21251.7</v>
@@ -2041,7 +2182,7 @@
         <v>11.69</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="H6" s="2">
         <v>248432.37</v>
@@ -2052,13 +2193,13 @@
         <v>93</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="E7" s="2">
         <v>60310</v>
@@ -2067,7 +2208,7 @@
         <v>10.58</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="H7" s="2">
         <v>638079.8</v>
@@ -2078,13 +2219,13 @@
         <v>94</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="E8" s="2">
         <v>4985</v>
@@ -2093,7 +2234,7 @@
         <v>7.99</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="H8" s="2">
         <v>39830.15</v>
@@ -2104,13 +2245,13 @@
         <v>95</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="E9" s="2">
         <v>8385.4</v>
@@ -2119,7 +2260,7 @@
         <v>11.69</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="H9" s="2">
         <v>98025.33</v>
@@ -2130,13 +2271,13 @@
         <v>96</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="E10" s="2">
         <v>27287.6</v>
@@ -2145,7 +2286,7 @@
         <v>7.4</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="H10" s="2">
         <v>201928.24</v>
@@ -2156,13 +2297,13 @@
         <v>97</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="E11" s="2">
         <v>25000</v>
@@ -2171,7 +2312,7 @@
         <v>20</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="H11" s="2">
         <v>500000</v>
@@ -2192,16 +2333,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2209,13 +2350,13 @@
         <v>109</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="C2" s="2">
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E2" s="2">
         <v>250000</v>
@@ -2226,13 +2367,13 @@
         <v>110</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="C3" s="2">
         <v>3</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E3" s="2">
         <v>800000</v>
@@ -2243,13 +2384,13 @@
         <v>111</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="C4" s="2">
         <v>1</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E4" s="2">
         <v>250000</v>
@@ -2260,13 +2401,13 @@
         <v>112</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="C5" s="2">
         <v>1</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E5" s="2">
         <v>300000</v>
@@ -2277,13 +2418,13 @@
         <v>113</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="C6" s="2">
         <v>3</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E6" s="2">
         <v>450000</v>
@@ -2304,16 +2445,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2321,16 +2462,16 @@
         <v>118</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2338,16 +2479,16 @@
         <v>119</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2355,16 +2496,16 @@
         <v>120</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -2382,22 +2523,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2405,22 +2546,22 @@
         <v>130</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="E2" s="2">
         <v>4559066</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2428,22 +2569,22 @@
         <v>131</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="E3" s="2">
         <v>4926564</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2451,22 +2592,22 @@
         <v>132</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="E4" s="2">
         <v>2349350</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/蔡其昌_2012-04-24_財產申報表_tmp61ee1.xlsx
+++ b/legislator/property/output/normal/蔡其昌_2012-04-24_財產申報表_tmp61ee1.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="104">
   <si>
     <t>name</t>
   </si>
@@ -66,7 +66,10 @@
     <t>index</t>
   </si>
   <si>
-    <t>臺中市清水區清水段清水小段00290000地號</t>
+    <t>portion</t>
+  </si>
+  <si>
+    <t>total</t>
   </si>
   <si>
     <t>臺中市清水區清水段清水小段00290002地號</t>
@@ -126,27 +129,6 @@
     <t>tmp61ee1</t>
   </si>
   <si>
-    <t>建物標示</t>
-  </si>
-  <si>
-    <t>面積（平方公尺）</t>
-  </si>
-  <si>
-    <t>權利範圍(持分）</t>
-  </si>
-  <si>
-    <t>所有權人</t>
-  </si>
-  <si>
-    <t>登記（取得）時間</t>
-  </si>
-  <si>
-    <t>登記（取得）原因</t>
-  </si>
-  <si>
-    <t>取得價額</t>
-  </si>
-  <si>
     <t>臺中市南屯區大新段09139000建號</t>
   </si>
   <si>
@@ -177,39 +159,21 @@
     <t>90年10月04日</t>
   </si>
   <si>
-    <t>廠牌型號</t>
-  </si>
-  <si>
-    <t>汽缸容量</t>
-  </si>
-  <si>
-    <t>所有人</t>
-  </si>
-  <si>
     <t>HondaCRV</t>
   </si>
   <si>
     <t>96年07月11曰</t>
   </si>
   <si>
-    <t>存放機構(應敘明分支機構）</t>
-  </si>
-  <si>
-    <t>種類</t>
-  </si>
-  <si>
-    <t>幣別</t>
-  </si>
-  <si>
-    <t>外幣總額</t>
-  </si>
-  <si>
-    <t>新臺幣總額或折合新臺幣總額</t>
-  </si>
-  <si>
     <t>臺灣銀行豐原分行</t>
   </si>
   <si>
+    <t>活期儲蓄存款</t>
+  </si>
+  <si>
+    <t>新臺幣</t>
+  </si>
+  <si>
     <t>安泰商業銀行豐原分行</t>
   </si>
   <si>
@@ -228,15 +192,9 @@
     <t>彰化商業銀行北台中分行</t>
   </si>
   <si>
-    <t>活期儲蓄存款</t>
-  </si>
-  <si>
     <t>活期存款</t>
   </si>
   <si>
-    <t>新臺幣</t>
-  </si>
-  <si>
     <t>美金</t>
   </si>
   <si>
@@ -249,12 +207,6 @@
     <t>currency</t>
   </si>
   <si>
-    <t>total</t>
-  </si>
-  <si>
-    <t>允強實業股份有限公司</t>
-  </si>
-  <si>
     <t>橋椿金屬股份有鹵公司</t>
   </si>
   <si>
@@ -282,24 +234,12 @@
     <t>stock</t>
   </si>
   <si>
-    <t>名稱</t>
-  </si>
-  <si>
-    <t>受託投資機構</t>
-  </si>
-  <si>
-    <t>單位數</t>
-  </si>
-  <si>
-    <t>票面價額(單位淨值）</t>
-  </si>
-  <si>
-    <t>外幣幣別</t>
-  </si>
-  <si>
     <t>復華高成長基金</t>
   </si>
   <si>
+    <t>復華投信</t>
+  </si>
+  <si>
     <t>復華新興債股動力組合基金</t>
   </si>
   <si>
@@ -324,27 +264,12 @@
     <t>寶來滬深300ETF</t>
   </si>
   <si>
-    <t>復華投信</t>
-  </si>
-  <si>
     <t>復華投倍</t>
   </si>
   <si>
     <t>寶來投信</t>
   </si>
   <si>
-    <t>財</t>
-  </si>
-  <si>
-    <t>產種類</t>
-  </si>
-  <si>
-    <t>項</t>
-  </si>
-  <si>
-    <t>件</t>
-  </si>
-  <si>
     <t>陳銀輝油畫</t>
   </si>
   <si>
@@ -360,76 +285,49 @@
     <t>鑽戒</t>
   </si>
   <si>
-    <t>保險公司</t>
-  </si>
-  <si>
-    <t>保險名稱</t>
-  </si>
-  <si>
-    <t>要保人</t>
-  </si>
-  <si>
-    <t>備註</t>
-  </si>
-  <si>
     <t>三商美邦人壽</t>
   </si>
   <si>
+    <t>20年繳費祥安終身壽險</t>
+  </si>
+  <si>
+    <t>保額20萬被保險人蔡〇葳</t>
+  </si>
+  <si>
     <t>國泰人壽</t>
   </si>
   <si>
-    <t>20年繳費祥安終身壽險</t>
-  </si>
-  <si>
     <t>添美盛美元終身壽險</t>
   </si>
   <si>
-    <t>保額20萬被保險人蔡〇葳</t>
-  </si>
-  <si>
     <t>保額30萬被保險人蔡◦鵬</t>
   </si>
   <si>
     <t>保額3000美元被保險人蔡其昌</t>
   </si>
   <si>
-    <t>債務人</t>
-  </si>
-  <si>
-    <t>債權人及地址</t>
-  </si>
-  <si>
-    <t>餘額</t>
-  </si>
-  <si>
-    <t>取得（發生）時間</t>
-  </si>
-  <si>
-    <t>取得（發生）原因</t>
-  </si>
-  <si>
     <t>房屋貸款</t>
   </si>
   <si>
     <t>安泰銀行豐原分行臺中市豐原區信義街</t>
   </si>
   <si>
+    <t>91年04月04日</t>
+  </si>
+  <si>
+    <t>親友與本人投資資金需求</t>
+  </si>
+  <si>
     <t>第一銀行大甲分行臺中市大甲區順天路</t>
   </si>
   <si>
     <t>國泰世華銀行沙鹿分行臺中市沙鹿區成功東街</t>
   </si>
   <si>
-    <t>91年04月04日</t>
-  </si>
-  <si>
     <t>100年06月27日</t>
   </si>
   <si>
     <t>100年06月23日</t>
-  </si>
-  <si>
-    <t>親友與本人投資資金需求</t>
   </si>
   <si>
     <t>原房貸轉貸</t>
@@ -794,13 +692,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O6"/>
+  <dimension ref="A1:Q5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -843,240 +741,223 @@
       <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C2" s="2">
-        <v>249</v>
+        <v>4</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M2" s="2">
         <v>1377</v>
       </c>
       <c r="N2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O2" s="2">
+        <v>16</v>
+      </c>
+      <c r="P2" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="1">
+        <v>17</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="2">
+        <v>2757</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="O2" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
-      <c r="A3" s="1">
-        <v>16</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="2">
-        <v>4</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="L3" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M3" s="2">
         <v>1377</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O3" s="2">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>17</v>
+      </c>
+      <c r="P3" s="2">
+        <v>0.00605</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>16.67985</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C4" s="2">
-        <v>2757</v>
+        <v>163</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M4" s="2">
         <v>1377</v>
       </c>
       <c r="N4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O4" s="2">
+        <v>18</v>
+      </c>
+      <c r="P4" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" s="1">
+        <v>19</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="2">
+        <v>76</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" s="2">
+        <v>1056400</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K5" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="O4" s="2">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
-      <c r="A5" s="1">
-        <v>18</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="2">
-        <v>163</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="L5" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M5" s="2">
         <v>1377</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O5" s="2">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
-      <c r="A6" s="1">
         <v>19</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="2">
+      <c r="P5" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="2">
         <v>76</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H6" s="2">
-        <v>1056400</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="M6" s="2">
-        <v>1377</v>
-      </c>
-      <c r="N6" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="O6" s="2">
-        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -1086,7 +967,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1094,181 +975,155 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1" s="1" t="s">
         <v>35</v>
       </c>
+      <c r="C1" s="1">
+        <v>163</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="2">
+        <v>13073.05</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="2">
-        <v>163</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="E2" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="2">
+        <v>3073.33</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="2">
-        <v>13073.05</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="E3" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C4" s="2">
-        <v>3073.33</v>
+        <v>193.04</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1">
+        <v>28</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="2">
+        <v>175.75</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C5" s="2">
-        <v>193.04</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="G5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H5" s="2" t="s">
         <v>29</v>
+      </c>
+      <c r="H5" s="2">
+        <v>2766184</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C6" s="2">
-        <v>175.75</v>
+        <v>51.8</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="2">
-        <v>2766184</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="1">
-        <v>29</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C7" s="2">
-        <v>51.8</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>29</v>
+      <c r="H6" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1278,7 +1133,40 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="B1:G1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="2:7">
+      <c r="B1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="1">
+        <v>1997</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" s="1">
+        <v>800000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1286,289 +1174,210 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>40</v>
+        <v>22</v>
+      </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1">
+        <v>6560034</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C2" s="2">
-        <v>1997</v>
+        <v>50</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>48</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G2" s="2">
-        <v>800000</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="B1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>53</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2">
-        <v>6560034</v>
+        <v>333999</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2">
-        <v>333999</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2">
-        <v>1000</v>
+        <v>990145</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1">
+        <v>57</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="D5" s="2" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="2"/>
+        <v>23</v>
+      </c>
+      <c r="F5" s="2">
+        <v>4594.63</v>
+      </c>
       <c r="G5" s="2">
-        <v>990145</v>
+        <v>133864.55</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="2">
-        <v>4594.63</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="F6" s="2"/>
       <c r="G6" s="2">
-        <v>133864.55</v>
+        <v>322505</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2">
-        <v>322505</v>
+        <v>2298624</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2">
-        <v>2298624</v>
+        <v>946229</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2">
-        <v>946229</v>
+        <v>132446</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2">
-        <v>132446</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="1">
-        <v>62</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2">
         <v>5060</v>
       </c>
     </row>
@@ -1579,7 +1388,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N10"/>
+  <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1593,16 +1402,16 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>75</v>
+        <v>15</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -1628,397 +1437,353 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" s="2">
-        <v>15000</v>
+        <v>32000</v>
       </c>
       <c r="E2" s="2">
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="G2" s="2">
-        <v>150000</v>
+        <v>320000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L2" s="2">
         <v>1377</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N2" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" s="2">
-        <v>32000</v>
+        <v>30000</v>
       </c>
       <c r="E3" s="2">
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="G3" s="2">
-        <v>320000</v>
+        <v>300000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L3" s="2">
         <v>1377</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N3" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" s="2">
-        <v>30000</v>
+        <v>1010</v>
       </c>
       <c r="E4" s="2">
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="G4" s="2">
-        <v>300000</v>
+        <v>10100</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L4" s="2">
         <v>1377</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N4" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D5" s="2">
-        <v>1010</v>
+        <v>10000</v>
       </c>
       <c r="E5" s="2">
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="G5" s="2">
-        <v>10100</v>
+        <v>100000</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L5" s="2">
         <v>1377</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N5" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D6" s="2">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="E6" s="2">
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="G6" s="2">
-        <v>100000</v>
+        <v>150000</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L6" s="2">
         <v>1377</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N6" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D7" s="2">
-        <v>15000</v>
+        <v>215286</v>
       </c>
       <c r="E7" s="2">
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="G7" s="2">
-        <v>150000</v>
+        <v>2152860</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L7" s="2">
         <v>1377</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N7" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D8" s="2">
-        <v>215286</v>
+        <v>7778</v>
       </c>
       <c r="E8" s="2">
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="G8" s="2">
-        <v>2152860</v>
+        <v>77780</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L8" s="2">
         <v>1377</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N8" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D9" s="2">
-        <v>7778</v>
+        <v>6222</v>
       </c>
       <c r="E9" s="2">
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="G9" s="2">
-        <v>77780</v>
+        <v>62220</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L9" s="2">
         <v>1377</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N9" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
-      <c r="A10" s="1">
-        <v>78</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="2">
-        <v>6222</v>
-      </c>
-      <c r="E10" s="2">
-        <v>10</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="G10" s="2">
-        <v>62220</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="L10" s="2">
-        <v>1377</v>
-      </c>
-      <c r="M10" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="N10" s="2">
         <v>78</v>
       </c>
     </row>
@@ -2029,7 +1794,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2037,284 +1802,258 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>89</v>
+        <v>71</v>
+      </c>
+      <c r="E1" s="1">
+        <v>9870.4</v>
+      </c>
+      <c r="F1" s="1">
+        <v>22.41</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>60</v>
+        <v>49</v>
+      </c>
+      <c r="H1" s="1">
+        <v>221195.66</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="E2" s="2">
-        <v>9870.4</v>
+        <v>32776.2</v>
       </c>
       <c r="F2" s="2">
-        <v>22.41</v>
+        <v>9.79</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="H2" s="2">
-        <v>221195.66</v>
+        <v>320879</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>101</v>
+        <v>71</v>
       </c>
       <c r="E3" s="2">
-        <v>32776.2</v>
+        <v>22144.1</v>
       </c>
       <c r="F3" s="2">
-        <v>9.79</v>
+        <v>11.89</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="H3" s="2">
-        <v>320879</v>
+        <v>263293.35</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>100</v>
+        <v>71</v>
       </c>
       <c r="E4" s="2">
-        <v>22144.1</v>
+        <v>50.6</v>
       </c>
       <c r="F4" s="2">
-        <v>11.89</v>
+        <v>13.17</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="H4" s="2">
-        <v>263293.35</v>
+        <v>666.4</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>100</v>
+        <v>71</v>
       </c>
       <c r="E5" s="2">
-        <v>50.6</v>
+        <v>21251.7</v>
       </c>
       <c r="F5" s="2">
-        <v>13.17</v>
+        <v>11.69</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="H5" s="2">
-        <v>666.4</v>
+        <v>248432.37</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>100</v>
+        <v>71</v>
       </c>
       <c r="E6" s="2">
-        <v>21251.7</v>
+        <v>60310</v>
       </c>
       <c r="F6" s="2">
-        <v>11.69</v>
+        <v>10.58</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="H6" s="2">
-        <v>248432.37</v>
+        <v>638079.8</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>100</v>
+        <v>71</v>
       </c>
       <c r="E7" s="2">
-        <v>60310</v>
+        <v>4985</v>
       </c>
       <c r="F7" s="2">
-        <v>10.58</v>
+        <v>7.99</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="H7" s="2">
-        <v>638079.8</v>
+        <v>39830.15</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>100</v>
+        <v>71</v>
       </c>
       <c r="E8" s="2">
-        <v>4985</v>
+        <v>8385.4</v>
       </c>
       <c r="F8" s="2">
-        <v>7.99</v>
+        <v>11.69</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="H8" s="2">
-        <v>39830.15</v>
+        <v>98025.33</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>100</v>
+        <v>71</v>
       </c>
       <c r="E9" s="2">
-        <v>8385.4</v>
+        <v>27287.6</v>
       </c>
       <c r="F9" s="2">
-        <v>11.69</v>
+        <v>7.4</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="H9" s="2">
-        <v>98025.33</v>
+        <v>201928.24</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="E10" s="2">
-        <v>27287.6</v>
+        <v>25000</v>
       </c>
       <c r="F10" s="2">
-        <v>7.4</v>
+        <v>20</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="H10" s="2">
-        <v>201928.24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="1">
-        <v>97</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E11" s="2">
-        <v>25000</v>
-      </c>
-      <c r="F11" s="2">
-        <v>20</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="H11" s="2">
         <v>500000</v>
       </c>
     </row>
@@ -2325,7 +2064,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2333,100 +2072,83 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>104</v>
+        <v>82</v>
+      </c>
+      <c r="C1" s="1">
+        <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>106</v>
+        <v>22</v>
+      </c>
+      <c r="E1" s="1">
+        <v>250000</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="C2" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E2" s="2">
-        <v>250000</v>
+        <v>800000</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="C3" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E3" s="2">
-        <v>800000</v>
+        <v>250000</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>109</v>
+        <v>85</v>
       </c>
       <c r="C4" s="2">
         <v>1</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4" s="2">
-        <v>250000</v>
+        <v>300000</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
       <c r="C5" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E5" s="2">
-        <v>300000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="1">
-        <v>113</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C6" s="2">
-        <v>3</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="2">
         <v>450000</v>
       </c>
     </row>
@@ -2437,7 +2159,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2445,67 +2167,50 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>112</v>
+        <v>87</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>113</v>
+        <v>88</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>114</v>
+        <v>23</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>115</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>116</v>
+        <v>87</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>118</v>
+        <v>88</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>120</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>116</v>
+        <v>90</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>118</v>
+        <v>91</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="1">
-        <v>120</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>122</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -2515,7 +2220,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2523,91 +2228,68 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>57</v>
+        <v>94</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>123</v>
+        <v>22</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>125</v>
+        <v>95</v>
+      </c>
+      <c r="E1" s="1">
+        <v>4559066</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>126</v>
+        <v>96</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>127</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>128</v>
+        <v>94</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>129</v>
+        <v>98</v>
       </c>
       <c r="E2" s="2">
-        <v>4559066</v>
+        <v>4926564</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>132</v>
+        <v>100</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>135</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>128</v>
+        <v>94</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>130</v>
+        <v>99</v>
       </c>
       <c r="E3" s="2">
-        <v>4926564</v>
+        <v>2349350</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>133</v>
+        <v>101</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1">
-        <v>132</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="E4" s="2">
-        <v>2349350</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>137</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/蔡其昌_2012-04-24_財產申報表_tmp61ee1.xlsx
+++ b/legislator/property/output/normal/蔡其昌_2012-04-24_財產申報表_tmp61ee1.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="106">
   <si>
     <t>name</t>
   </si>
@@ -72,6 +72,9 @@
     <t>total</t>
   </si>
   <si>
+    <t>臺中市清水區清水段清水小段00290000地號</t>
+  </si>
+  <si>
     <t>臺中市清水區清水段清水小段00290002地號</t>
   </si>
   <si>
@@ -205,6 +208,9 @@
   </si>
   <si>
     <t>currency</t>
+  </si>
+  <si>
+    <t>允強實業股份有限公司</t>
   </si>
   <si>
     <t>橋椿金屬股份有鹵公司</t>
@@ -692,7 +698,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q5"/>
+  <dimension ref="A1:Q6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -750,72 +756,72 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="2">
-        <v>4</v>
+        <v>249</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M2" s="2">
         <v>1377</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O2" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P2" s="2">
         <v>1</v>
       </c>
       <c r="Q2" s="2">
-        <v>4</v>
+        <v>249</v>
       </c>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="2">
-        <v>2757</v>
+        <v>4</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>21</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>25</v>
@@ -824,48 +830,48 @@
         <v>29</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M3" s="2">
         <v>1377</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O3" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P3" s="2">
-        <v>0.00605</v>
+        <v>1</v>
       </c>
       <c r="Q3" s="2">
-        <v>16.67985</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C4" s="2">
-        <v>163</v>
+        <v>2757</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>23</v>
@@ -874,89 +880,142 @@
         <v>26</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M4" s="2">
         <v>1377</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O4" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P4" s="2">
-        <v>1</v>
+        <v>0.00605</v>
       </c>
       <c r="Q4" s="2">
-        <v>163</v>
+        <v>16.67985</v>
       </c>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="1">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C5" s="2">
-        <v>76</v>
+        <v>163</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>27</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H5" s="2">
-        <v>1056400</v>
+        <v>30</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M5" s="2">
         <v>1377</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O5" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P5" s="2">
         <v>1</v>
       </c>
       <c r="Q5" s="2">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" s="1">
+        <v>19</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="2">
+        <v>76</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="2">
+        <v>1056400</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M6" s="2">
+        <v>1377</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="O6" s="2">
+        <v>19</v>
+      </c>
+      <c r="P6" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="2">
         <v>76</v>
       </c>
     </row>
@@ -967,99 +1026,180 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:Q7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C1" s="1">
-        <v>163</v>
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>36</v>
       </c>
       <c r="C2" s="2">
-        <v>13073.05</v>
+        <v>163</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1377</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="O2" s="2">
+        <v>24</v>
+      </c>
+      <c r="P2" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="1">
         <v>25</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
-        <v>26</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>37</v>
       </c>
       <c r="C3" s="2">
-        <v>3073.33</v>
+        <v>13073.05</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>42</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1377</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="O3" s="2">
+        <v>25</v>
+      </c>
+      <c r="P3" s="2">
+        <v>0.00586</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>76.608073</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C4" s="2">
-        <v>193.04</v>
+        <v>3073.33</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>23</v>
@@ -1068,62 +1208,196 @@
         <v>44</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M4" s="2">
+        <v>1377</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="O4" s="2">
+        <v>26</v>
+      </c>
+      <c r="P4" s="2">
+        <v>0.00469483568075117</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>14.428779342723</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>39</v>
       </c>
       <c r="C5" s="2">
-        <v>175.75</v>
+        <v>193.04</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M5" s="2">
+        <v>1377</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="O5" s="2">
         <v>27</v>
       </c>
-      <c r="G5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H5" s="2">
-        <v>2766184</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="P5" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>193.04</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>40</v>
       </c>
       <c r="C6" s="2">
+        <v>175.75</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="2">
+        <v>2766184</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M6" s="2">
+        <v>1377</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="O6" s="2">
+        <v>28</v>
+      </c>
+      <c r="P6" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>175.75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" s="1">
+        <v>29</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="2">
         <v>51.8</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>30</v>
+      <c r="D7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M7" s="2">
+        <v>1377</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="O7" s="2">
+        <v>29</v>
+      </c>
+      <c r="P7" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>51.8</v>
       </c>
     </row>
   </sheetData>
@@ -1133,29 +1407,52 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:G1"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:7">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C1" s="1">
         <v>1997</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" s="1">
+        <v>800000</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>39</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G1" s="1">
+      <c r="C2" s="2">
+        <v>1997</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="2">
         <v>800000</v>
       </c>
     </row>
@@ -1166,7 +1463,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1174,16 +1471,16 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1">
@@ -1192,192 +1489,213 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2">
-        <v>333999</v>
+        <v>6560034</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>51</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2">
-        <v>1000</v>
+        <v>333999</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>52</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>23</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2">
-        <v>990145</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" s="2">
-        <v>4594.63</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="F5" s="2"/>
       <c r="G5" s="2">
-        <v>133864.55</v>
+        <v>990145</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>53</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" s="2"/>
+        <v>24</v>
+      </c>
+      <c r="F6" s="2">
+        <v>4594.63</v>
+      </c>
       <c r="G6" s="2">
-        <v>322505</v>
+        <v>133864.55</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2">
-        <v>2298624</v>
+        <v>322505</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2">
-        <v>946229</v>
+        <v>2298624</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2">
-        <v>132446</v>
+        <v>946229</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2">
+        <v>132446</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1">
+        <v>62</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2">
         <v>5060</v>
       </c>
     </row>
@@ -1388,7 +1706,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N9"/>
+  <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1402,13 +1720,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -1437,353 +1755,397 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" s="2">
-        <v>32000</v>
+        <v>15000</v>
       </c>
       <c r="E2" s="2">
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G2" s="2">
-        <v>320000</v>
+        <v>150000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L2" s="2">
         <v>1377</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N2" s="2">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" s="2">
-        <v>30000</v>
+        <v>32000</v>
       </c>
       <c r="E3" s="2">
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G3" s="2">
-        <v>300000</v>
+        <v>320000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L3" s="2">
         <v>1377</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N3" s="2">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" s="2">
-        <v>1010</v>
+        <v>30000</v>
       </c>
       <c r="E4" s="2">
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G4" s="2">
-        <v>10100</v>
+        <v>300000</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L4" s="2">
         <v>1377</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N4" s="2">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" s="2">
-        <v>10000</v>
+        <v>1010</v>
       </c>
       <c r="E5" s="2">
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G5" s="2">
-        <v>100000</v>
+        <v>10100</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L5" s="2">
         <v>1377</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N5" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" s="2">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="E6" s="2">
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G6" s="2">
-        <v>150000</v>
+        <v>100000</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L6" s="2">
         <v>1377</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N6" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" s="2">
-        <v>215286</v>
+        <v>15000</v>
       </c>
       <c r="E7" s="2">
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G7" s="2">
-        <v>2152860</v>
+        <v>150000</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L7" s="2">
         <v>1377</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N7" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D8" s="2">
-        <v>7778</v>
+        <v>215286</v>
       </c>
       <c r="E8" s="2">
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G8" s="2">
-        <v>77780</v>
+        <v>2152860</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L8" s="2">
         <v>1377</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N8" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D9" s="2">
-        <v>6222</v>
+        <v>7778</v>
       </c>
       <c r="E9" s="2">
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G9" s="2">
-        <v>62220</v>
+        <v>77780</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L9" s="2">
         <v>1377</v>
       </c>
       <c r="M9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="N9" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="1">
+        <v>78</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="2">
+        <v>6222</v>
+      </c>
+      <c r="E10" s="2">
+        <v>10</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" s="2">
+        <v>62220</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J10" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="N9" s="2">
+      <c r="K10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L10" s="2">
+        <v>1377</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="N10" s="2">
         <v>78</v>
       </c>
     </row>
@@ -1794,7 +2156,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1802,13 +2164,13 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E1" s="1">
         <v>9870.4</v>
@@ -1817,7 +2179,7 @@
         <v>22.41</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H1" s="1">
         <v>221195.66</v>
@@ -1825,235 +2187,261 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>72</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="E2" s="2">
-        <v>32776.2</v>
+        <v>9870.4</v>
       </c>
       <c r="F2" s="2">
-        <v>9.79</v>
+        <v>22.41</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H2" s="2">
-        <v>320879</v>
+        <v>221195.66</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="E3" s="2">
-        <v>22144.1</v>
+        <v>32776.2</v>
       </c>
       <c r="F3" s="2">
-        <v>11.89</v>
+        <v>9.79</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H3" s="2">
-        <v>263293.35</v>
+        <v>320879</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E4" s="2">
-        <v>50.6</v>
+        <v>22144.1</v>
       </c>
       <c r="F4" s="2">
-        <v>13.17</v>
+        <v>11.89</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H4" s="2">
-        <v>666.4</v>
+        <v>263293.35</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E5" s="2">
-        <v>21251.7</v>
+        <v>50.6</v>
       </c>
       <c r="F5" s="2">
-        <v>11.69</v>
+        <v>13.17</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H5" s="2">
-        <v>248432.37</v>
+        <v>666.4</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E6" s="2">
-        <v>60310</v>
+        <v>21251.7</v>
       </c>
       <c r="F6" s="2">
-        <v>10.58</v>
+        <v>11.69</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H6" s="2">
-        <v>638079.8</v>
+        <v>248432.37</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E7" s="2">
-        <v>4985</v>
+        <v>60310</v>
       </c>
       <c r="F7" s="2">
-        <v>7.99</v>
+        <v>10.58</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H7" s="2">
-        <v>39830.15</v>
+        <v>638079.8</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E8" s="2">
-        <v>8385.4</v>
+        <v>4985</v>
       </c>
       <c r="F8" s="2">
-        <v>11.69</v>
+        <v>7.99</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H8" s="2">
-        <v>98025.33</v>
+        <v>39830.15</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E9" s="2">
-        <v>27287.6</v>
+        <v>8385.4</v>
       </c>
       <c r="F9" s="2">
-        <v>7.4</v>
+        <v>11.69</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H9" s="2">
-        <v>201928.24</v>
+        <v>98025.33</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1">
+        <v>96</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E10" s="2">
+        <v>27287.6</v>
+      </c>
+      <c r="F10" s="2">
+        <v>7.4</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H10" s="2">
+        <v>201928.24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1">
         <v>97</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="2" t="s">
+      <c r="B11" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="E10" s="2">
+      <c r="C11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E11" s="2">
         <v>25000</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F11" s="2">
         <v>20</v>
       </c>
-      <c r="G10" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="H10" s="2">
+      <c r="G11" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H11" s="2">
         <v>500000</v>
       </c>
     </row>
@@ -2064,7 +2452,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2072,13 +2460,13 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C1" s="1">
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E1" s="1">
         <v>250000</v>
@@ -2086,69 +2474,86 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C2" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E2" s="2">
-        <v>800000</v>
+        <v>250000</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C3" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E3" s="2">
-        <v>250000</v>
+        <v>800000</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C4" s="2">
         <v>1</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4" s="2">
-        <v>300000</v>
+        <v>250000</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1">
+        <v>112</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="2">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1">
         <v>113</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C5" s="2">
+      <c r="B6" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C6" s="2">
         <v>3</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="2">
+      <c r="D6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="2">
         <v>450000</v>
       </c>
     </row>
@@ -2159,7 +2564,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2167,50 +2572,67 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1">
+        <v>119</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1">
         <v>120</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" s="2" t="s">
+      <c r="B4" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>93</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -2220,7 +2642,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2228,68 +2650,91 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E1" s="1">
         <v>4559066</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2" s="2">
+        <v>4559066</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="E2" s="2">
-        <v>4926564</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>100</v>
-      </c>
       <c r="G2" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
+        <v>131</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E3" s="2">
+        <v>4926564</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
         <v>132</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E3" s="2">
+      <c r="B4" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E4" s="2">
         <v>2349350</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="G3" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>103</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/蔡其昌_2012-04-24_財產申報表_tmp61ee1.xlsx
+++ b/legislator/property/output/normal/蔡其昌_2012-04-24_財產申報表_tmp61ee1.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="107">
   <si>
     <t>name</t>
   </si>
@@ -160,6 +160,9 @@
   </si>
   <si>
     <t>90年10月04日</t>
+  </si>
+  <si>
+    <t>capacity</t>
   </si>
   <si>
     <t>HondaCRV</t>
@@ -1407,38 +1410,59 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="1">
-        <v>1997</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>47</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G1" s="1">
-        <v>800000</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>39</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C2" s="2">
         <v>1997</v>
@@ -1447,13 +1471,34 @@
         <v>24</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>30</v>
       </c>
       <c r="G2" s="2">
         <v>800000</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1377</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="N2" s="2">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1471,13 +1516,13 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>23</v>
@@ -1492,13 +1537,13 @@
         <v>53</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>23</v>
@@ -1513,13 +1558,13 @@
         <v>54</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>23</v>
@@ -1534,13 +1579,13 @@
         <v>55</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>23</v>
@@ -1555,13 +1600,13 @@
         <v>56</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>24</v>
@@ -1576,13 +1621,13 @@
         <v>57</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>24</v>
@@ -1599,13 +1644,13 @@
         <v>58</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>24</v>
@@ -1620,13 +1665,13 @@
         <v>59</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>24</v>
@@ -1641,13 +1686,13 @@
         <v>60</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>24</v>
@@ -1662,13 +1707,13 @@
         <v>61</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>24</v>
@@ -1683,13 +1728,13 @@
         <v>62</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>24</v>
@@ -1720,13 +1765,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -1758,7 +1803,7 @@
         <v>69</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>24</v>
@@ -1770,13 +1815,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G2" s="2">
         <v>150000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>33</v>
@@ -1802,7 +1847,7 @@
         <v>70</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>24</v>
@@ -1814,13 +1859,13 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G3" s="2">
         <v>320000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>33</v>
@@ -1846,7 +1891,7 @@
         <v>72</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>24</v>
@@ -1858,13 +1903,13 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G4" s="2">
         <v>300000</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>33</v>
@@ -1890,7 +1935,7 @@
         <v>73</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>24</v>
@@ -1902,13 +1947,13 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G5" s="2">
         <v>10100</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>33</v>
@@ -1934,7 +1979,7 @@
         <v>74</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>24</v>
@@ -1946,13 +1991,13 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G6" s="2">
         <v>100000</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>33</v>
@@ -1978,7 +2023,7 @@
         <v>75</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>24</v>
@@ -1990,13 +2035,13 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G7" s="2">
         <v>150000</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>33</v>
@@ -2022,7 +2067,7 @@
         <v>76</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>24</v>
@@ -2034,13 +2079,13 @@
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G8" s="2">
         <v>2152860</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>33</v>
@@ -2066,7 +2111,7 @@
         <v>77</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>23</v>
@@ -2078,13 +2123,13 @@
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G9" s="2">
         <v>77780</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>33</v>
@@ -2110,7 +2155,7 @@
         <v>78</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>23</v>
@@ -2122,13 +2167,13 @@
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G10" s="2">
         <v>62220</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>33</v>
@@ -2164,13 +2209,13 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E1" s="1">
         <v>9870.4</v>
@@ -2179,7 +2224,7 @@
         <v>22.41</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H1" s="1">
         <v>221195.66</v>
@@ -2190,13 +2235,13 @@
         <v>88</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E2" s="2">
         <v>9870.4</v>
@@ -2205,7 +2250,7 @@
         <v>22.41</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H2" s="2">
         <v>221195.66</v>
@@ -2216,13 +2261,13 @@
         <v>89</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E3" s="2">
         <v>32776.2</v>
@@ -2231,7 +2276,7 @@
         <v>9.79</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H3" s="2">
         <v>320879</v>
@@ -2242,13 +2287,13 @@
         <v>90</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E4" s="2">
         <v>22144.1</v>
@@ -2257,7 +2302,7 @@
         <v>11.89</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H4" s="2">
         <v>263293.35</v>
@@ -2268,13 +2313,13 @@
         <v>91</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E5" s="2">
         <v>50.6</v>
@@ -2283,7 +2328,7 @@
         <v>13.17</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H5" s="2">
         <v>666.4</v>
@@ -2294,13 +2339,13 @@
         <v>92</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E6" s="2">
         <v>21251.7</v>
@@ -2309,7 +2354,7 @@
         <v>11.69</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H6" s="2">
         <v>248432.37</v>
@@ -2320,13 +2365,13 @@
         <v>93</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E7" s="2">
         <v>60310</v>
@@ -2335,7 +2380,7 @@
         <v>10.58</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H7" s="2">
         <v>638079.8</v>
@@ -2346,13 +2391,13 @@
         <v>94</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E8" s="2">
         <v>4985</v>
@@ -2361,7 +2406,7 @@
         <v>7.99</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H8" s="2">
         <v>39830.15</v>
@@ -2372,13 +2417,13 @@
         <v>95</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E9" s="2">
         <v>8385.4</v>
@@ -2387,7 +2432,7 @@
         <v>11.69</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H9" s="2">
         <v>98025.33</v>
@@ -2398,13 +2443,13 @@
         <v>96</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E10" s="2">
         <v>27287.6</v>
@@ -2413,7 +2458,7 @@
         <v>7.4</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H10" s="2">
         <v>201928.24</v>
@@ -2424,13 +2469,13 @@
         <v>97</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E11" s="2">
         <v>25000</v>
@@ -2439,7 +2484,7 @@
         <v>20</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H11" s="2">
         <v>500000</v>
@@ -2460,7 +2505,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C1" s="1">
         <v>1</v>
@@ -2477,7 +2522,7 @@
         <v>109</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C2" s="2">
         <v>1</v>
@@ -2494,7 +2539,7 @@
         <v>110</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C3" s="2">
         <v>3</v>
@@ -2511,7 +2556,7 @@
         <v>111</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C4" s="2">
         <v>1</v>
@@ -2528,7 +2573,7 @@
         <v>112</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C5" s="2">
         <v>1</v>
@@ -2545,7 +2590,7 @@
         <v>113</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C6" s="2">
         <v>3</v>
@@ -2572,16 +2617,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>24</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2589,16 +2634,16 @@
         <v>118</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>24</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2606,16 +2651,16 @@
         <v>119</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>24</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2623,16 +2668,16 @@
         <v>120</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>24</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -2650,22 +2695,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E1" s="1">
         <v>4559066</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2673,22 +2718,22 @@
         <v>130</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E2" s="2">
         <v>4559066</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2696,22 +2741,22 @@
         <v>131</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E3" s="2">
         <v>4926564</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2719,22 +2764,22 @@
         <v>132</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E4" s="2">
         <v>2349350</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/蔡其昌_2012-04-24_財產申報表_tmp61ee1.xlsx
+++ b/legislator/property/output/normal/蔡其昌_2012-04-24_財產申報表_tmp61ee1.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="109">
   <si>
     <t>name</t>
   </si>
@@ -162,6 +162,9 @@
     <t>90年10月04日</t>
   </si>
   <si>
+    <t>building</t>
+  </si>
+  <si>
     <t>capacity</t>
   </si>
   <si>
@@ -169,6 +172,9 @@
   </si>
   <si>
     <t>96年07月11曰</t>
+  </si>
+  <si>
+    <t>car</t>
   </si>
   <si>
     <t>臺灣銀行豐原分行</t>
@@ -1111,7 +1117,7 @@
         <v>31</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>33</v>
@@ -1164,7 +1170,7 @@
         <v>31</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>33</v>
@@ -1217,7 +1223,7 @@
         <v>31</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>33</v>
@@ -1270,7 +1276,7 @@
         <v>31</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>33</v>
@@ -1323,7 +1329,7 @@
         <v>2766184</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>33</v>
@@ -1376,7 +1382,7 @@
         <v>31</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>33</v>
@@ -1421,7 +1427,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -1462,7 +1468,7 @@
         <v>39</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C2" s="2">
         <v>1997</v>
@@ -1471,7 +1477,7 @@
         <v>24</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>30</v>
@@ -1480,7 +1486,7 @@
         <v>800000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>33</v>
@@ -1516,13 +1522,13 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>23</v>
@@ -1537,13 +1543,13 @@
         <v>53</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>23</v>
@@ -1558,13 +1564,13 @@
         <v>54</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="D3" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>23</v>
@@ -1579,13 +1585,13 @@
         <v>55</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>23</v>
@@ -1600,13 +1606,13 @@
         <v>56</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>24</v>
@@ -1621,13 +1627,13 @@
         <v>57</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>24</v>
@@ -1644,13 +1650,13 @@
         <v>58</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>24</v>
@@ -1665,13 +1671,13 @@
         <v>59</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="D8" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>24</v>
@@ -1686,13 +1692,13 @@
         <v>60</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>24</v>
@@ -1707,13 +1713,13 @@
         <v>61</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>24</v>
@@ -1728,13 +1734,13 @@
         <v>62</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>24</v>
@@ -1765,13 +1771,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -1803,7 +1809,7 @@
         <v>69</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>24</v>
@@ -1815,13 +1821,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G2" s="2">
         <v>150000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>33</v>
@@ -1847,7 +1853,7 @@
         <v>70</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>24</v>
@@ -1859,13 +1865,13 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G3" s="2">
         <v>320000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>33</v>
@@ -1891,7 +1897,7 @@
         <v>72</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>24</v>
@@ -1903,13 +1909,13 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G4" s="2">
         <v>300000</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>33</v>
@@ -1935,7 +1941,7 @@
         <v>73</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>24</v>
@@ -1947,13 +1953,13 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G5" s="2">
         <v>10100</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>33</v>
@@ -1979,7 +1985,7 @@
         <v>74</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>24</v>
@@ -1991,13 +1997,13 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G6" s="2">
         <v>100000</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>33</v>
@@ -2023,7 +2029,7 @@
         <v>75</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>24</v>
@@ -2035,13 +2041,13 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G7" s="2">
         <v>150000</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>33</v>
@@ -2067,7 +2073,7 @@
         <v>76</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>24</v>
@@ -2079,13 +2085,13 @@
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G8" s="2">
         <v>2152860</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>33</v>
@@ -2111,7 +2117,7 @@
         <v>77</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>23</v>
@@ -2123,13 +2129,13 @@
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G9" s="2">
         <v>77780</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>33</v>
@@ -2155,7 +2161,7 @@
         <v>78</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>23</v>
@@ -2167,13 +2173,13 @@
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G10" s="2">
         <v>62220</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>33</v>
@@ -2209,13 +2215,13 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E1" s="1">
         <v>9870.4</v>
@@ -2224,7 +2230,7 @@
         <v>22.41</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H1" s="1">
         <v>221195.66</v>
@@ -2235,13 +2241,13 @@
         <v>88</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E2" s="2">
         <v>9870.4</v>
@@ -2250,7 +2256,7 @@
         <v>22.41</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H2" s="2">
         <v>221195.66</v>
@@ -2261,13 +2267,13 @@
         <v>89</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E3" s="2">
         <v>32776.2</v>
@@ -2276,7 +2282,7 @@
         <v>9.79</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H3" s="2">
         <v>320879</v>
@@ -2287,13 +2293,13 @@
         <v>90</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>76</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>74</v>
       </c>
       <c r="E4" s="2">
         <v>22144.1</v>
@@ -2302,7 +2308,7 @@
         <v>11.89</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H4" s="2">
         <v>263293.35</v>
@@ -2313,13 +2319,13 @@
         <v>91</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E5" s="2">
         <v>50.6</v>
@@ -2328,7 +2334,7 @@
         <v>13.17</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H5" s="2">
         <v>666.4</v>
@@ -2339,13 +2345,13 @@
         <v>92</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E6" s="2">
         <v>21251.7</v>
@@ -2354,7 +2360,7 @@
         <v>11.69</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H6" s="2">
         <v>248432.37</v>
@@ -2365,13 +2371,13 @@
         <v>93</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E7" s="2">
         <v>60310</v>
@@ -2380,7 +2386,7 @@
         <v>10.58</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H7" s="2">
         <v>638079.8</v>
@@ -2391,13 +2397,13 @@
         <v>94</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E8" s="2">
         <v>4985</v>
@@ -2406,7 +2412,7 @@
         <v>7.99</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H8" s="2">
         <v>39830.15</v>
@@ -2417,13 +2423,13 @@
         <v>95</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E9" s="2">
         <v>8385.4</v>
@@ -2432,7 +2438,7 @@
         <v>11.69</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H9" s="2">
         <v>98025.33</v>
@@ -2443,13 +2449,13 @@
         <v>96</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E10" s="2">
         <v>27287.6</v>
@@ -2458,7 +2464,7 @@
         <v>7.4</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H10" s="2">
         <v>201928.24</v>
@@ -2469,13 +2475,13 @@
         <v>97</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E11" s="2">
         <v>25000</v>
@@ -2484,7 +2490,7 @@
         <v>20</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H11" s="2">
         <v>500000</v>
@@ -2505,7 +2511,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C1" s="1">
         <v>1</v>
@@ -2522,7 +2528,7 @@
         <v>109</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C2" s="2">
         <v>1</v>
@@ -2539,7 +2545,7 @@
         <v>110</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C3" s="2">
         <v>3</v>
@@ -2556,7 +2562,7 @@
         <v>111</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C4" s="2">
         <v>1</v>
@@ -2573,7 +2579,7 @@
         <v>112</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C5" s="2">
         <v>1</v>
@@ -2590,7 +2596,7 @@
         <v>113</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C6" s="2">
         <v>3</v>
@@ -2617,16 +2623,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>24</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2634,16 +2640,16 @@
         <v>118</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>24</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2651,16 +2657,16 @@
         <v>119</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>24</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2668,16 +2674,16 @@
         <v>120</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>24</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -2695,22 +2701,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E1" s="1">
         <v>4559066</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2718,22 +2724,22 @@
         <v>130</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E2" s="2">
         <v>4559066</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2741,22 +2747,22 @@
         <v>131</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E3" s="2">
         <v>4926564</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2764,22 +2770,22 @@
         <v>132</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E4" s="2">
         <v>2349350</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/蔡其昌_2012-04-24_財產申報表_tmp61ee1.xlsx
+++ b/legislator/property/output/normal/蔡其昌_2012-04-24_財產申報表_tmp61ee1.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="112">
   <si>
     <t>name</t>
   </si>
@@ -177,46 +177,55 @@
     <t>car</t>
   </si>
   <si>
+    <t>bank</t>
+  </si>
+  <si>
+    <t>deposit_type</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
     <t>臺灣銀行豐原分行</t>
   </si>
   <si>
+    <t>安泰商業銀行豐原分行</t>
+  </si>
+  <si>
+    <t>華南商業銀行豐原分行</t>
+  </si>
+  <si>
+    <t>國泰世華商業銀行西台中分行</t>
+  </si>
+  <si>
+    <t>國泰世華商業銀行沙鹿分行</t>
+  </si>
+  <si>
+    <t>永豐商業銀行南台中分行</t>
+  </si>
+  <si>
+    <t>彰化商業銀行北台中分行</t>
+  </si>
+  <si>
     <t>活期儲蓄存款</t>
   </si>
   <si>
+    <t>活期存款</t>
+  </si>
+  <si>
     <t>新臺幣</t>
   </si>
   <si>
-    <t>安泰商業銀行豐原分行</t>
-  </si>
-  <si>
-    <t>華南商業銀行豐原分行</t>
-  </si>
-  <si>
-    <t>國泰世華商業銀行西台中分行</t>
-  </si>
-  <si>
-    <t>國泰世華商業銀行沙鹿分行</t>
-  </si>
-  <si>
-    <t>永豐商業銀行南台中分行</t>
-  </si>
-  <si>
-    <t>彰化商業銀行北台中分行</t>
-  </si>
-  <si>
-    <t>活期存款</t>
-  </si>
-  <si>
     <t>美金</t>
   </si>
   <si>
+    <t>deposit</t>
+  </si>
+  <si>
     <t>quantity</t>
   </si>
   <si>
     <t>face_value</t>
-  </si>
-  <si>
-    <t>currency</t>
   </si>
   <si>
     <t>允強實業股份有限公司</t>
@@ -1514,13 +1523,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>51</v>
       </c>
@@ -1531,223 +1540,441 @@
         <v>53</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1">
-        <v>6560034</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>53</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="2">
+        <v>6560034</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="2">
+        <v>1377</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M2" s="2">
         <v>53</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2">
-        <v>6560034</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>54</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="2">
+        <v>333999</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" s="2">
+        <v>1377</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M3" s="2">
         <v>54</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2">
-        <v>333999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>55</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="2">
+        <v>1000</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K4" s="2">
+        <v>1377</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M4" s="2">
         <v>55</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>56</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2">
+      <c r="F5" s="2">
         <v>990145</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="G5" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" s="2">
+        <v>1377</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M5" s="2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>57</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F6" s="2">
-        <v>4594.63</v>
-      </c>
-      <c r="G6" s="2">
         <v>133864.55</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="G6" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K6" s="2">
+        <v>1377</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M6" s="2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>58</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2">
+      <c r="F7" s="2">
         <v>322505</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="G7" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K7" s="2">
+        <v>1377</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M7" s="2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>59</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2">
+      <c r="F8" s="2">
         <v>2298624</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="G8" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K8" s="2">
+        <v>1377</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M8" s="2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>60</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2">
+      <c r="F9" s="2">
         <v>946229</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="G9" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K9" s="2">
+        <v>1377</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M9" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>61</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2">
+      <c r="F10" s="2">
         <v>132446</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="G10" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K10" s="2">
+        <v>1377</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M10" s="2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>62</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2">
+      <c r="F11" s="2">
         <v>5060</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K11" s="2">
+        <v>1377</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M11" s="2">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -1771,13 +1998,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -1809,7 +2036,7 @@
         <v>69</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>24</v>
@@ -1821,13 +2048,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="G2" s="2">
         <v>150000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>33</v>
@@ -1853,7 +2080,7 @@
         <v>70</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>24</v>
@@ -1865,13 +2092,13 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="G3" s="2">
         <v>320000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>33</v>
@@ -1897,7 +2124,7 @@
         <v>72</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>24</v>
@@ -1909,13 +2136,13 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="G4" s="2">
         <v>300000</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>33</v>
@@ -1941,7 +2168,7 @@
         <v>73</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>24</v>
@@ -1953,13 +2180,13 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="G5" s="2">
         <v>10100</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>33</v>
@@ -1985,7 +2212,7 @@
         <v>74</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>24</v>
@@ -1997,13 +2224,13 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="G6" s="2">
         <v>100000</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>33</v>
@@ -2029,7 +2256,7 @@
         <v>75</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>24</v>
@@ -2041,13 +2268,13 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="G7" s="2">
         <v>150000</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>33</v>
@@ -2073,7 +2300,7 @@
         <v>76</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>24</v>
@@ -2085,13 +2312,13 @@
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="G8" s="2">
         <v>2152860</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>33</v>
@@ -2117,7 +2344,7 @@
         <v>77</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>23</v>
@@ -2129,13 +2356,13 @@
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="G9" s="2">
         <v>77780</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>33</v>
@@ -2161,7 +2388,7 @@
         <v>78</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>23</v>
@@ -2173,13 +2400,13 @@
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="G10" s="2">
         <v>62220</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>33</v>
@@ -2215,13 +2442,13 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E1" s="1">
         <v>9870.4</v>
@@ -2230,7 +2457,7 @@
         <v>22.41</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="H1" s="1">
         <v>221195.66</v>
@@ -2241,13 +2468,13 @@
         <v>88</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E2" s="2">
         <v>9870.4</v>
@@ -2256,7 +2483,7 @@
         <v>22.41</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="H2" s="2">
         <v>221195.66</v>
@@ -2267,13 +2494,13 @@
         <v>89</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E3" s="2">
         <v>32776.2</v>
@@ -2282,7 +2509,7 @@
         <v>9.79</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="H3" s="2">
         <v>320879</v>
@@ -2293,13 +2520,13 @@
         <v>90</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E4" s="2">
         <v>22144.1</v>
@@ -2308,7 +2535,7 @@
         <v>11.89</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="H4" s="2">
         <v>263293.35</v>
@@ -2319,13 +2546,13 @@
         <v>91</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>76</v>
       </c>
       <c r="E5" s="2">
         <v>50.6</v>
@@ -2334,7 +2561,7 @@
         <v>13.17</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="H5" s="2">
         <v>666.4</v>
@@ -2345,13 +2572,13 @@
         <v>92</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E6" s="2">
         <v>21251.7</v>
@@ -2360,7 +2587,7 @@
         <v>11.69</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="H6" s="2">
         <v>248432.37</v>
@@ -2371,13 +2598,13 @@
         <v>93</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E7" s="2">
         <v>60310</v>
@@ -2386,7 +2613,7 @@
         <v>10.58</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="H7" s="2">
         <v>638079.8</v>
@@ -2397,13 +2624,13 @@
         <v>94</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E8" s="2">
         <v>4985</v>
@@ -2412,7 +2639,7 @@
         <v>7.99</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="H8" s="2">
         <v>39830.15</v>
@@ -2423,13 +2650,13 @@
         <v>95</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E9" s="2">
         <v>8385.4</v>
@@ -2438,7 +2665,7 @@
         <v>11.69</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="H9" s="2">
         <v>98025.33</v>
@@ -2449,13 +2676,13 @@
         <v>96</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E10" s="2">
         <v>27287.6</v>
@@ -2464,7 +2691,7 @@
         <v>7.4</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="H10" s="2">
         <v>201928.24</v>
@@ -2475,13 +2702,13 @@
         <v>97</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E11" s="2">
         <v>25000</v>
@@ -2490,7 +2717,7 @@
         <v>20</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="H11" s="2">
         <v>500000</v>
@@ -2511,7 +2738,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C1" s="1">
         <v>1</v>
@@ -2528,7 +2755,7 @@
         <v>109</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C2" s="2">
         <v>1</v>
@@ -2545,7 +2772,7 @@
         <v>110</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C3" s="2">
         <v>3</v>
@@ -2562,7 +2789,7 @@
         <v>111</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C4" s="2">
         <v>1</v>
@@ -2579,7 +2806,7 @@
         <v>112</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C5" s="2">
         <v>1</v>
@@ -2596,7 +2823,7 @@
         <v>113</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C6" s="2">
         <v>3</v>
@@ -2623,16 +2850,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>24</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2640,16 +2867,16 @@
         <v>118</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>24</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2657,16 +2884,16 @@
         <v>119</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>24</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2674,16 +2901,16 @@
         <v>120</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>24</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -2701,22 +2928,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="E1" s="1">
         <v>4559066</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2724,22 +2951,22 @@
         <v>130</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="E2" s="2">
         <v>4559066</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2747,22 +2974,22 @@
         <v>131</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="E3" s="2">
         <v>4926564</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2770,22 +2997,22 @@
         <v>132</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E4" s="2">
         <v>2349350</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/蔡其昌_2012-04-24_財產申報表_tmp61ee1.xlsx
+++ b/legislator/property/output/normal/蔡其昌_2012-04-24_財產申報表_tmp61ee1.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="115">
   <si>
     <t>name</t>
   </si>
@@ -258,42 +258,48 @@
     <t>stock</t>
   </si>
   <si>
+    <t>dealer</t>
+  </si>
+  <si>
     <t>復華高成長基金</t>
   </si>
   <si>
+    <t>復華新興債股動力組合基金</t>
+  </si>
+  <si>
+    <t>復華華人世紀基金</t>
+  </si>
+  <si>
+    <t>復華傳家二號基金</t>
+  </si>
+  <si>
+    <t>復華全球大趨勢基金</t>
+  </si>
+  <si>
+    <t>復華全球短期收益基金</t>
+  </si>
+  <si>
+    <t>復華復華基金</t>
+  </si>
+  <si>
+    <t>復華大中華中小策略基金</t>
+  </si>
+  <si>
+    <t>寶來滬深300ETF</t>
+  </si>
+  <si>
     <t>復華投信</t>
   </si>
   <si>
-    <t>復華新興債股動力組合基金</t>
-  </si>
-  <si>
-    <t>復華華人世紀基金</t>
-  </si>
-  <si>
-    <t>復華傳家二號基金</t>
-  </si>
-  <si>
-    <t>復華全球大趨勢基金</t>
-  </si>
-  <si>
-    <t>復華全球短期收益基金</t>
-  </si>
-  <si>
-    <t>復華復華基金</t>
-  </si>
-  <si>
-    <t>復華大中華中小策略基金</t>
-  </si>
-  <si>
-    <t>寶來滬深300ETF</t>
-  </si>
-  <si>
     <t>復華投倍</t>
   </si>
   <si>
     <t>寶來投信</t>
   </si>
   <si>
+    <t>fund</t>
+  </si>
+  <si>
     <t>陳銀輝油畫</t>
   </si>
   <si>
@@ -307,6 +313,9 @@
   </si>
   <si>
     <t>鑽戒</t>
+  </si>
+  <si>
+    <t>otherbonds</t>
   </si>
   <si>
     <t>三商美邦人壽</t>
@@ -2434,47 +2443,68 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:O11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="E1" s="1">
-        <v>9870.4</v>
-      </c>
-      <c r="F1" s="1">
-        <v>22.41</v>
+      <c r="E1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="H1" s="1">
-        <v>221195.66</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+        <v>53</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>88</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="E2" s="2">
         <v>9870.4</v>
@@ -2488,8 +2518,29 @@
       <c r="H2" s="2">
         <v>221195.66</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="I2" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1377</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="O2" s="2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>89</v>
       </c>
@@ -2500,7 +2551,7 @@
         <v>23</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E3" s="2">
         <v>32776.2</v>
@@ -2514,8 +2565,29 @@
       <c r="H3" s="2">
         <v>320879</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1377</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="O3" s="2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>90</v>
       </c>
@@ -2526,7 +2598,7 @@
         <v>23</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="E4" s="2">
         <v>22144.1</v>
@@ -2540,8 +2612,29 @@
       <c r="H4" s="2">
         <v>263293.35</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="I4" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M4" s="2">
+        <v>1377</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="O4" s="2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>91</v>
       </c>
@@ -2552,7 +2645,7 @@
         <v>23</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="E5" s="2">
         <v>50.6</v>
@@ -2566,8 +2659,29 @@
       <c r="H5" s="2">
         <v>666.4</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M5" s="2">
+        <v>1377</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="O5" s="2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>92</v>
       </c>
@@ -2578,7 +2692,7 @@
         <v>23</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="E6" s="2">
         <v>21251.7</v>
@@ -2592,8 +2706,29 @@
       <c r="H6" s="2">
         <v>248432.37</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="I6" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M6" s="2">
+        <v>1377</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="O6" s="2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>93</v>
       </c>
@@ -2604,7 +2739,7 @@
         <v>23</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="E7" s="2">
         <v>60310</v>
@@ -2618,8 +2753,29 @@
       <c r="H7" s="2">
         <v>638079.8</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="I7" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M7" s="2">
+        <v>1377</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="O7" s="2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>94</v>
       </c>
@@ -2630,7 +2786,7 @@
         <v>23</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="E8" s="2">
         <v>4985</v>
@@ -2644,8 +2800,29 @@
       <c r="H8" s="2">
         <v>39830.15</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="I8" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M8" s="2">
+        <v>1377</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="O8" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>95</v>
       </c>
@@ -2656,7 +2833,7 @@
         <v>24</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="E9" s="2">
         <v>8385.4</v>
@@ -2670,8 +2847,29 @@
       <c r="H9" s="2">
         <v>98025.33</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="I9" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M9" s="2">
+        <v>1377</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="O9" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>96</v>
       </c>
@@ -2682,7 +2880,7 @@
         <v>24</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="E10" s="2">
         <v>27287.6</v>
@@ -2696,8 +2894,29 @@
       <c r="H10" s="2">
         <v>201928.24</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="I10" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M10" s="2">
+        <v>1377</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="O10" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>97</v>
       </c>
@@ -2708,7 +2927,7 @@
         <v>23</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E11" s="2">
         <v>25000</v>
@@ -2721,6 +2940,27 @@
       </c>
       <c r="H11" s="2">
         <v>500000</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M11" s="2">
+        <v>1377</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="O11" s="2">
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -2730,32 +2970,53 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:12">
       <c r="B1" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C1" s="1">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E1" s="1">
-        <v>250000</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="1">
         <v>109</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C2" s="2">
         <v>1</v>
@@ -2766,13 +3027,34 @@
       <c r="E2" s="2">
         <v>250000</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="2">
+        <v>1377</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L2" s="2">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="1">
         <v>110</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C3" s="2">
         <v>3</v>
@@ -2783,13 +3065,34 @@
       <c r="E3" s="2">
         <v>800000</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="2">
+        <v>1377</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L3" s="2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="1">
         <v>111</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C4" s="2">
         <v>1</v>
@@ -2800,13 +3103,34 @@
       <c r="E4" s="2">
         <v>250000</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="F4" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" s="2">
+        <v>1377</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L4" s="2">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="1">
         <v>112</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C5" s="2">
         <v>1</v>
@@ -2817,13 +3141,34 @@
       <c r="E5" s="2">
         <v>300000</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J5" s="2">
+        <v>1377</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L5" s="2">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="1">
         <v>113</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C6" s="2">
         <v>3</v>
@@ -2833,6 +3178,27 @@
       </c>
       <c r="E6" s="2">
         <v>450000</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J6" s="2">
+        <v>1377</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L6" s="2">
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -2850,16 +3216,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>24</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2867,16 +3233,16 @@
         <v>118</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>24</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2884,16 +3250,16 @@
         <v>119</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>24</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2901,16 +3267,16 @@
         <v>120</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>24</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -2928,22 +3294,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="E1" s="1">
         <v>4559066</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2951,22 +3317,22 @@
         <v>130</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="E2" s="2">
         <v>4559066</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2974,22 +3340,22 @@
         <v>131</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E3" s="2">
         <v>4926564</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2997,22 +3363,22 @@
         <v>132</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E4" s="2">
         <v>2349350</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/蔡其昌_2012-04-24_財產申報表_tmp61ee1.xlsx
+++ b/legislator/property/output/normal/蔡其昌_2012-04-24_財產申報表_tmp61ee1.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="117">
   <si>
     <t>name</t>
   </si>
@@ -315,28 +315,31 @@
     <t>鑽戒</t>
   </si>
   <si>
-    <t>otherbonds</t>
+    <t>antique</t>
+  </si>
+  <si>
+    <t>company</t>
   </si>
   <si>
     <t>三商美邦人壽</t>
   </si>
   <si>
+    <t>國泰人壽</t>
+  </si>
+  <si>
     <t>20年繳費祥安終身壽險</t>
   </si>
   <si>
-    <t>保額20萬被保險人蔡〇葳</t>
-  </si>
-  <si>
-    <t>國泰人壽</t>
-  </si>
-  <si>
     <t>添美盛美元終身壽險</t>
   </si>
   <si>
-    <t>保額30萬被保險人蔡◦鵬</t>
-  </si>
-  <si>
-    <t>保額3000美元被保險人蔡其昌</t>
+    <t>insurance</t>
+  </si>
+  <si>
+    <t>species</t>
+  </si>
+  <si>
+    <t>debtor</t>
   </si>
   <si>
     <t>房屋貸款</t>
@@ -345,28 +348,31 @@
     <t>安泰銀行豐原分行臺中市豐原區信義街</t>
   </si>
   <si>
+    <t>第一銀行大甲分行臺中市大甲區順天路</t>
+  </si>
+  <si>
+    <t>國泰世華銀行沙鹿分行臺中市沙鹿區成功東街</t>
+  </si>
+  <si>
     <t>91年04月04日</t>
   </si>
   <si>
+    <t>100年06月27日</t>
+  </si>
+  <si>
+    <t>100年06月23日</t>
+  </si>
+  <si>
     <t>親友與本人投資資金需求</t>
   </si>
   <si>
-    <t>第一銀行大甲分行臺中市大甲區順天路</t>
-  </si>
-  <si>
-    <t>國泰世華銀行沙鹿分行臺中市沙鹿區成功東街</t>
-  </si>
-  <si>
-    <t>100年06月27日</t>
-  </si>
-  <si>
-    <t>100年06月23日</t>
-  </si>
-  <si>
     <t>原房貸轉貸</t>
   </si>
   <si>
     <t>購置房屋</t>
+  </si>
+  <si>
+    <t>debt</t>
   </si>
 </sst>
 </file>
@@ -3208,52 +3214,88 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>98</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>118</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>24</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>103</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="2">
+        <v>1377</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K2" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>119</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>24</v>
@@ -3261,13 +3303,31 @@
       <c r="E3" s="2" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" s="2">
+        <v>1377</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K3" s="2">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>120</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>102</v>
@@ -3276,7 +3336,25 @@
         <v>24</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" s="2">
+        <v>1377</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K4" s="2">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -3286,67 +3364,109 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="E1" s="1">
-        <v>4559066</v>
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>107</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>130</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E2" s="2">
         <v>4559066</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>113</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1377</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="N2" s="2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>131</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E3" s="2">
         <v>4926564</v>
@@ -3355,21 +3475,42 @@
         <v>111</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>114</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L3" s="2">
+        <v>1377</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="N3" s="2">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>132</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E4" s="2">
         <v>2349350</v>
@@ -3378,7 +3519,28 @@
         <v>112</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L4" s="2">
+        <v>1377</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="N4" s="2">
+        <v>132</v>
       </c>
     </row>
   </sheetData>
